--- a/core/src/main/resources/TestData/ServiceTests/GradeServices.xlsx
+++ b/core/src/main/resources/TestData/ServiceTests/GradeServices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\core\src\main\resources\TestData\ServiceTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{679CF28C-A37C-4444-B819-9808AB3185D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9467BF95-2508-4F33-8F0C-A9E35FDBE844}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{679CF28C-A37C-4444-B819-9808AB3185D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF0D6997-D485-4526-BC60-637619FACD44}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="create" sheetId="2" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
-  <si>
-    <t>BandName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -47,9 +44,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>TestBand1</t>
-  </si>
-  <si>
     <t>Automation Created Band</t>
   </si>
   <si>
@@ -86,51 +80,9 @@
     <t>B10</t>
   </si>
   <si>
-    <t>TestBand2</t>
-  </si>
-  <si>
-    <t>TestBand3</t>
-  </si>
-  <si>
-    <t>TestBand4</t>
-  </si>
-  <si>
-    <t>TestBand5</t>
-  </si>
-  <si>
-    <t>TestBand6</t>
-  </si>
-  <si>
-    <t>TestBand7</t>
-  </si>
-  <si>
-    <t>TestBand8</t>
-  </si>
-  <si>
-    <t>TestBand9</t>
-  </si>
-  <si>
-    <t>TestBand10</t>
-  </si>
-  <si>
     <t>Test_Description</t>
   </si>
   <si>
-    <t>Automation updted Band</t>
-  </si>
-  <si>
-    <t>TestBand1Updated</t>
-  </si>
-  <si>
-    <t>TestBand2Updated</t>
-  </si>
-  <si>
-    <t>TestBand8Updated</t>
-  </si>
-  <si>
-    <t>TestBand10Updated</t>
-  </si>
-  <si>
     <t>GradeName</t>
   </si>
   <si>
@@ -165,6 +117,45 @@
   </si>
   <si>
     <t>TestGrade10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Automation udating band - gradeName,Description</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade1</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade2</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade3</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade4</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade5</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade6</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade7</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade8</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade9</t>
+  </si>
+  <si>
+    <t>uopdatingTestGrade10</t>
+  </si>
+  <si>
+    <t>Automation updted grade</t>
   </si>
 </sst>
 </file>
@@ -523,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670448AF-0B86-4153-B049-2AE3044BA6DA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -536,189 +527,189 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -729,204 +720,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47090206-3928-4DCF-9E51-F85B2DFEBF8F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -938,245 +896,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFA9D73-E738-4B57-8D09-78196DF0FCA2}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
